--- a/biology/Zoologie/Colias_marcopolo/Colias_marcopolo.xlsx
+++ b/biology/Zoologie/Colias_marcopolo/Colias_marcopolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias marcopolo est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias marcopolo a été décrit par Grigori Grumm-Gerdjimaïlo en 1888[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias marcopolo a été décrit par Grigori Grumm-Gerdjimaïlo en 1888.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Colias marcopolo  marcopolo au Pamir.
 Colias marcopolo afganipolo (Schulte, 1977) en Afghanistan.
-Colias marcopolo kushana (Wyatt et Omoto, 1966) en Afghanistan[1].</t>
+Colias marcopolo kushana (Wyatt et Omoto, 1966) en Afghanistan.</t>
         </is>
       </c>
     </row>
@@ -574,9 +590,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias marcopolo se nomme Marco Polo's Clouded Yellow en anglais[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias marcopolo se nomme Marco Polo's Clouded Yellow en anglais.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias marcopolo est un papillon au dessus de couleur jaune avec une large bande noire le long du bord externe qui est ou non ornée d'une ligne de marques jaune.
 Le revers est jaune grisé.
@@ -639,8 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Astragalus[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Astragalus.
 </t>
         </is>
       </c>
@@ -669,13 +694,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias marcopolo est présent en Afghanistan et dans les montagnes du Tadjikistan dans l’Himalaya[1].
-Biotope
-Colias marcopolo réside en montagne entre 3 000 m et 5 000 m[2],[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias marcopolo est présent en Afghanistan et dans les montagnes du Tadjikistan dans l’Himalaya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_marcopolo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_marcopolo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias marcopolo réside en montagne entre 3 000 m et 5 000 m,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_marcopolo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_marcopolo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
